--- a/tests/sim/config.xlsx
+++ b/tests/sim/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\git\lab-events-simulator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\angel\git\logistics-conveyors-des-library\tests\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990FD71-13CF-440C-A071-2F0BC31CC203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC38981-6946-46A9-8144-40F253FC1ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>destiny</t>
   </si>
@@ -70,9 +70,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>'fast'</t>
   </si>
   <si>
@@ -86,6 +83,123 @@
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>DIR01</t>
+  </si>
+  <si>
+    <t>PT02</t>
+  </si>
+  <si>
+    <t>PT03</t>
+  </si>
+  <si>
+    <t>DIR02</t>
+  </si>
+  <si>
+    <t>PT04</t>
+  </si>
+  <si>
+    <t>DIR04</t>
+  </si>
+  <si>
+    <t>PT05</t>
+  </si>
+  <si>
+    <t>DIR05</t>
+  </si>
+  <si>
+    <t>DIR08</t>
+  </si>
+  <si>
+    <t>PT06</t>
+  </si>
+  <si>
+    <t>DIR09</t>
+  </si>
+  <si>
+    <t>PT07</t>
+  </si>
+  <si>
+    <t>PT08</t>
+  </si>
+  <si>
+    <t>DIR10</t>
+  </si>
+  <si>
+    <t>PT09</t>
+  </si>
+  <si>
+    <t>DIR11</t>
+  </si>
+  <si>
+    <t>DIR14</t>
+  </si>
+  <si>
+    <t>PT10</t>
+  </si>
+  <si>
+    <t>DIR13</t>
+  </si>
+  <si>
+    <t>DIR15</t>
+  </si>
+  <si>
+    <t>PT11</t>
+  </si>
+  <si>
+    <t>DIR16</t>
+  </si>
+  <si>
+    <t>PT12</t>
+  </si>
+  <si>
+    <t>DIR18</t>
+  </si>
+  <si>
+    <t>PT13</t>
+  </si>
+  <si>
+    <t>DIR19</t>
+  </si>
+  <si>
+    <t>PT14</t>
+  </si>
+  <si>
+    <t>PT15</t>
+  </si>
+  <si>
+    <t>DIR20</t>
+  </si>
+  <si>
+    <t>PT16</t>
+  </si>
+  <si>
+    <t>PT17</t>
+  </si>
+  <si>
+    <t>DIR07</t>
+  </si>
+  <si>
+    <t>DIR21</t>
+  </si>
+  <si>
+    <t>DIR03</t>
+  </si>
+  <si>
+    <t>DIR06</t>
+  </si>
+  <si>
+    <t>DIR12</t>
+  </si>
+  <si>
+    <t>DIR17</t>
   </si>
 </sst>
 </file>
@@ -121,10 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -471,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -532,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -572,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -612,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -692,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -705,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B502A44-B3A8-490D-AC71-04B56DC6825D}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,145 +834,1197 @@
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4">
         <v>14</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
         <v>14</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/sim/config.xlsx
+++ b/tests/sim/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\angel\git\logistics-conveyors-des-library\tests\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC38981-6946-46A9-8144-40F253FC1ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF569EB0-9499-4616-8662-4F345A65A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -235,13 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +833,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L43"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,1196 +843,1185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>12</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>50</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>12</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>14</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>14</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>12</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4"/>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>13</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>14</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>8</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>20</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4"/>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>18</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
         <v>10</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
         <v>12</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
         <v>8</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <v>10</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
         <v>12</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <v>8</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <v>10</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
         <v>10</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
         <v>10</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>8</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
         <v>12</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
         <v>8</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
         <v>10</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
         <v>10</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
         <v>12</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
         <v>10</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
         <v>8</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
         <v>10</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
         <v>8</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
         <v>14</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
